--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Jag1-Notch1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Jag1-Notch1.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>14.52425533333333</v>
+        <v>12.55295333333333</v>
       </c>
       <c r="H2">
-        <v>43.572766</v>
+        <v>37.65886</v>
       </c>
       <c r="I2">
-        <v>0.2093406766457121</v>
+        <v>0.3363704472878066</v>
       </c>
       <c r="J2">
-        <v>0.2513957970825711</v>
+        <v>0.3591006154861918</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>56.01527666666667</v>
+        <v>38.10639333333333</v>
       </c>
       <c r="N2">
-        <v>168.04583</v>
+        <v>114.31918</v>
       </c>
       <c r="O2">
-        <v>0.4883616647765734</v>
+        <v>0.3831479157160237</v>
       </c>
       <c r="P2">
-        <v>0.5237161609491596</v>
+        <v>0.4159903984418967</v>
       </c>
       <c r="Q2">
-        <v>813.5801808739756</v>
+        <v>478.3477772149778</v>
       </c>
       <c r="R2">
-        <v>7322.22162786578</v>
+        <v>4305.1299949348</v>
       </c>
       <c r="S2">
-        <v>0.1022339613521543</v>
+        <v>0.1288796357867897</v>
       </c>
       <c r="T2">
-        <v>0.1316600417268381</v>
+        <v>0.1493824081168313</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>14.52425533333333</v>
+        <v>12.55295333333333</v>
       </c>
       <c r="H3">
-        <v>43.572766</v>
+        <v>37.65886</v>
       </c>
       <c r="I3">
-        <v>0.2093406766457121</v>
+        <v>0.3363704472878066</v>
       </c>
       <c r="J3">
-        <v>0.2513957970825711</v>
+        <v>0.3591006154861918</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>27.448452</v>
       </c>
       <c r="O3">
-        <v>0.07976854715323708</v>
+        <v>0.09199521176963764</v>
       </c>
       <c r="P3">
-        <v>0.08554331818550501</v>
+        <v>0.09988081163714851</v>
       </c>
       <c r="Q3">
-        <v>132.889441784248</v>
+        <v>114.85304567608</v>
       </c>
       <c r="R3">
-        <v>1196.004976058232</v>
+        <v>1033.67741108472</v>
       </c>
       <c r="S3">
-        <v>0.01669880163610404</v>
+        <v>0.0309444705312895</v>
       </c>
       <c r="T3">
-        <v>0.02150523066033303</v>
+        <v>0.03586726093416042</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>14.52425533333333</v>
+        <v>12.55295333333333</v>
       </c>
       <c r="H4">
-        <v>43.572766</v>
+        <v>37.65886</v>
       </c>
       <c r="I4">
-        <v>0.2093406766457121</v>
+        <v>0.3363704472878066</v>
       </c>
       <c r="J4">
-        <v>0.2513957970825711</v>
+        <v>0.3591006154861918</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>12.129045</v>
+        <v>15.023598</v>
       </c>
       <c r="N4">
-        <v>36.387135</v>
+        <v>45.070794</v>
       </c>
       <c r="O4">
-        <v>0.1057454494708373</v>
+        <v>0.1510575983904562</v>
       </c>
       <c r="P4">
-        <v>0.1134007945935868</v>
+        <v>0.1640058785774412</v>
       </c>
       <c r="Q4">
-        <v>176.16534652949</v>
+        <v>188.59052459276</v>
       </c>
       <c r="R4">
-        <v>1585.48811876541</v>
+        <v>1697.31472133484</v>
       </c>
       <c r="S4">
-        <v>0.02213682394443004</v>
+        <v>0.05081131193681961</v>
       </c>
       <c r="T4">
-        <v>0.02850848314665166</v>
+        <v>0.05889461194051279</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>14.52425533333333</v>
+        <v>12.55295333333333</v>
       </c>
       <c r="H5">
-        <v>43.572766</v>
+        <v>37.65886</v>
       </c>
       <c r="I5">
-        <v>0.2093406766457121</v>
+        <v>0.3363704472878066</v>
       </c>
       <c r="J5">
-        <v>0.2513957970825711</v>
+        <v>0.3591006154861918</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>23.229232</v>
+        <v>23.556204</v>
       </c>
       <c r="N5">
-        <v>46.45846400000001</v>
+        <v>47.112408</v>
       </c>
       <c r="O5">
-        <v>0.2025209386808572</v>
+        <v>0.236850294013169</v>
       </c>
       <c r="P5">
-        <v>0.1447881712368271</v>
+        <v>0.1714350065796238</v>
       </c>
       <c r="Q5">
-        <v>337.3872967652374</v>
+        <v>295.69992952248</v>
       </c>
       <c r="R5">
-        <v>2024.323780591424</v>
+        <v>1774.19957713488</v>
       </c>
       <c r="S5">
-        <v>0.04239587033837542</v>
+        <v>0.07966943933745815</v>
       </c>
       <c r="T5">
-        <v>0.03639913771620995</v>
+        <v>0.06156241637862227</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>14.52425533333333</v>
+        <v>12.55295333333333</v>
       </c>
       <c r="H6">
-        <v>43.572766</v>
+        <v>37.65886</v>
       </c>
       <c r="I6">
-        <v>0.2093406766457121</v>
+        <v>0.3363704472878066</v>
       </c>
       <c r="J6">
-        <v>0.2513957970825711</v>
+        <v>0.3591006154861918</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>14.177359</v>
+        <v>13.62041</v>
       </c>
       <c r="N6">
-        <v>42.532077</v>
+        <v>40.86123000000001</v>
       </c>
       <c r="O6">
-        <v>0.1236033999184949</v>
+        <v>0.1369489801107134</v>
       </c>
       <c r="P6">
-        <v>0.1325515550349214</v>
+        <v>0.1486879047638899</v>
       </c>
       <c r="Q6">
-        <v>205.9155820683314</v>
+        <v>170.9763711108667</v>
       </c>
       <c r="R6">
-        <v>1853.240238614982</v>
+        <v>1538.7873399978</v>
       </c>
       <c r="S6">
-        <v>0.02587521937464828</v>
+        <v>0.04606558969544959</v>
       </c>
       <c r="T6">
-        <v>0.03332290383253837</v>
+        <v>0.05339391811606513</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,13 +853,13 @@
         <v>13.149005</v>
       </c>
       <c r="H7">
-        <v>39.44701499999999</v>
+        <v>39.447015</v>
       </c>
       <c r="I7">
-        <v>0.189518948871723</v>
+        <v>0.3523423194360853</v>
       </c>
       <c r="J7">
-        <v>0.2275920187957114</v>
+        <v>0.3761517838190811</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>56.01527666666667</v>
+        <v>38.10639333333333</v>
       </c>
       <c r="N7">
-        <v>168.04583</v>
+        <v>114.31918</v>
       </c>
       <c r="O7">
-        <v>0.4883616647765734</v>
+        <v>0.3831479157160237</v>
       </c>
       <c r="P7">
-        <v>0.5237161609491596</v>
+        <v>0.4159903984418967</v>
       </c>
       <c r="Q7">
-        <v>736.5451529663832</v>
+        <v>501.0611564719666</v>
       </c>
       <c r="R7">
-        <v>6628.906376697449</v>
+        <v>4509.5504082477</v>
       </c>
       <c r="S7">
-        <v>0.09255378937770095</v>
+        <v>0.1349992253104856</v>
       </c>
       <c r="T7">
-        <v>0.119193618346359</v>
+        <v>0.1564755304255297</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,13 +915,13 @@
         <v>13.149005</v>
       </c>
       <c r="H8">
-        <v>39.44701499999999</v>
+        <v>39.447015</v>
       </c>
       <c r="I8">
-        <v>0.189518948871723</v>
+        <v>0.3523423194360853</v>
       </c>
       <c r="J8">
-        <v>0.2275920187957114</v>
+        <v>0.3761517838190811</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>27.448452</v>
       </c>
       <c r="O8">
-        <v>0.07976854715323708</v>
+        <v>0.09199521176963764</v>
       </c>
       <c r="P8">
-        <v>0.08554331818550501</v>
+        <v>0.09988081163714851</v>
       </c>
       <c r="Q8">
         <v>120.30661086342</v>
@@ -948,10 +948,10 @@
         <v>1082.75949777078</v>
       </c>
       <c r="S8">
-        <v>0.01511765120950597</v>
+        <v>0.03241380629192799</v>
       </c>
       <c r="T8">
-        <v>0.01946897648032298</v>
+        <v>0.03757034546661105</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,13 +977,13 @@
         <v>13.149005</v>
       </c>
       <c r="H9">
-        <v>39.44701499999999</v>
+        <v>39.447015</v>
       </c>
       <c r="I9">
-        <v>0.189518948871723</v>
+        <v>0.3523423194360853</v>
       </c>
       <c r="J9">
-        <v>0.2275920187957114</v>
+        <v>0.3761517838190811</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>12.129045</v>
+        <v>15.023598</v>
       </c>
       <c r="N9">
-        <v>36.387135</v>
+        <v>45.070794</v>
       </c>
       <c r="O9">
-        <v>0.1057454494708373</v>
+        <v>0.1510575983904562</v>
       </c>
       <c r="P9">
-        <v>0.1134007945935868</v>
+        <v>0.1640058785774412</v>
       </c>
       <c r="Q9">
-        <v>159.484873350225</v>
+        <v>197.54536521999</v>
       </c>
       <c r="R9">
-        <v>1435.363860152025</v>
+        <v>1777.90828697991</v>
       </c>
       <c r="S9">
-        <v>0.02004076643168099</v>
+        <v>0.053223984585338</v>
       </c>
       <c r="T9">
-        <v>0.02580911577459221</v>
+        <v>0.06169110378372013</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,13 +1039,13 @@
         <v>13.149005</v>
       </c>
       <c r="H10">
-        <v>39.44701499999999</v>
+        <v>39.447015</v>
       </c>
       <c r="I10">
-        <v>0.189518948871723</v>
+        <v>0.3523423194360853</v>
       </c>
       <c r="J10">
-        <v>0.2275920187957114</v>
+        <v>0.3761517838190811</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>23.229232</v>
+        <v>23.556204</v>
       </c>
       <c r="N10">
-        <v>46.45846400000001</v>
+        <v>47.112408</v>
       </c>
       <c r="O10">
-        <v>0.2025209386808572</v>
+        <v>0.236850294013169</v>
       </c>
       <c r="P10">
-        <v>0.1447881712368271</v>
+        <v>0.1714350065796238</v>
       </c>
       <c r="Q10">
-        <v>305.44128771416</v>
+        <v>309.74064417702</v>
       </c>
       <c r="R10">
-        <v>1832.64772628496</v>
+        <v>1858.44386506212</v>
       </c>
       <c r="S10">
-        <v>0.03838155542331074</v>
+        <v>0.08345238195171872</v>
       </c>
       <c r="T10">
-        <v>0.03295263218952865</v>
+        <v>0.06448558353396142</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,13 +1101,13 @@
         <v>13.149005</v>
       </c>
       <c r="H11">
-        <v>39.44701499999999</v>
+        <v>39.447015</v>
       </c>
       <c r="I11">
-        <v>0.189518948871723</v>
+        <v>0.3523423194360853</v>
       </c>
       <c r="J11">
-        <v>0.2275920187957114</v>
+        <v>0.3761517838190811</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>14.177359</v>
+        <v>13.62041</v>
       </c>
       <c r="N11">
-        <v>42.532077</v>
+        <v>40.86123000000001</v>
       </c>
       <c r="O11">
-        <v>0.1236033999184949</v>
+        <v>0.1369489801107134</v>
       </c>
       <c r="P11">
-        <v>0.1325515550349214</v>
+        <v>0.1486879047638899</v>
       </c>
       <c r="Q11">
-        <v>186.418164377795</v>
+        <v>179.09483919205</v>
       </c>
       <c r="R11">
-        <v>1677.763479400155</v>
+        <v>1611.85355272845</v>
       </c>
       <c r="S11">
-        <v>0.02342518642952437</v>
+        <v>0.04825292129661507</v>
       </c>
       <c r="T11">
-        <v>0.03016767600490862</v>
+        <v>0.05592922060925883</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.309793666666666</v>
+        <v>2.132104</v>
       </c>
       <c r="H12">
-        <v>9.929380999999999</v>
+        <v>6.396312</v>
       </c>
       <c r="I12">
-        <v>0.04770464508066981</v>
+        <v>0.05713211521624299</v>
       </c>
       <c r="J12">
-        <v>0.05728818434504563</v>
+        <v>0.06099280689967021</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>56.01527666666667</v>
+        <v>38.10639333333333</v>
       </c>
       <c r="N12">
-        <v>168.04583</v>
+        <v>114.31918</v>
       </c>
       <c r="O12">
-        <v>0.4883616647765734</v>
+        <v>0.3831479157160237</v>
       </c>
       <c r="P12">
-        <v>0.5237161609491596</v>
+        <v>0.4159903984418967</v>
       </c>
       <c r="Q12">
-        <v>185.3990079479144</v>
+        <v>81.24679365157333</v>
       </c>
       <c r="R12">
-        <v>1668.59107153123</v>
+        <v>731.2211428641599</v>
       </c>
       <c r="S12">
-        <v>0.02329711988917148</v>
+        <v>0.02189005086555123</v>
       </c>
       <c r="T12">
-        <v>0.03000274797293504</v>
+        <v>0.02537242204428347</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.309793666666666</v>
+        <v>2.132104</v>
       </c>
       <c r="H13">
-        <v>9.929380999999999</v>
+        <v>6.396312</v>
       </c>
       <c r="I13">
-        <v>0.04770464508066981</v>
+        <v>0.05713211521624299</v>
       </c>
       <c r="J13">
-        <v>0.05728818434504563</v>
+        <v>0.06099280689967021</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>27.448452</v>
       </c>
       <c r="O13">
-        <v>0.07976854715323708</v>
+        <v>0.09199521176963764</v>
       </c>
       <c r="P13">
-        <v>0.08554331818550501</v>
+        <v>0.09988081163714851</v>
       </c>
       <c r="Q13">
-        <v>30.282904196468</v>
+        <v>19.507651434336</v>
       </c>
       <c r="R13">
-        <v>272.546137768212</v>
+        <v>175.568862909024</v>
       </c>
       <c r="S13">
-        <v>0.00380533023054585</v>
+        <v>0.005255881038165611</v>
       </c>
       <c r="T13">
-        <v>0.004900621381698105</v>
+        <v>0.006092011057166932</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>3.309793666666666</v>
+        <v>2.132104</v>
       </c>
       <c r="H14">
-        <v>9.929380999999999</v>
+        <v>6.396312</v>
       </c>
       <c r="I14">
-        <v>0.04770464508066981</v>
+        <v>0.05713211521624299</v>
       </c>
       <c r="J14">
-        <v>0.05728818434504563</v>
+        <v>0.06099280689967021</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>12.129045</v>
+        <v>15.023598</v>
       </c>
       <c r="N14">
-        <v>36.387135</v>
+        <v>45.070794</v>
       </c>
       <c r="O14">
-        <v>0.1057454494708373</v>
+        <v>0.1510575983904562</v>
       </c>
       <c r="P14">
-        <v>0.1134007945935868</v>
+        <v>0.1640058785774412</v>
       </c>
       <c r="Q14">
-        <v>40.14463632371499</v>
+        <v>32.031873390192</v>
       </c>
       <c r="R14">
-        <v>361.301726913435</v>
+        <v>288.286860511728</v>
       </c>
       <c r="S14">
-        <v>0.005044549135902199</v>
+        <v>0.008630240115532505</v>
       </c>
       <c r="T14">
-        <v>0.006496525625552052</v>
+        <v>0.01000317888248463</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>3.309793666666666</v>
+        <v>2.132104</v>
       </c>
       <c r="H15">
-        <v>9.929380999999999</v>
+        <v>6.396312</v>
       </c>
       <c r="I15">
-        <v>0.04770464508066981</v>
+        <v>0.05713211521624299</v>
       </c>
       <c r="J15">
-        <v>0.05728818434504563</v>
+        <v>0.06099280689967021</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>23.229232</v>
+        <v>23.556204</v>
       </c>
       <c r="N15">
-        <v>46.45846400000001</v>
+        <v>47.112408</v>
       </c>
       <c r="O15">
-        <v>0.2025209386808572</v>
+        <v>0.236850294013169</v>
       </c>
       <c r="P15">
-        <v>0.1447881712368271</v>
+        <v>0.1714350065796238</v>
       </c>
       <c r="Q15">
-        <v>76.88396495513066</v>
+        <v>50.224276773216</v>
       </c>
       <c r="R15">
-        <v>461.303789730784</v>
+        <v>301.345660639296</v>
       </c>
       <c r="S15">
-        <v>0.009661189501174389</v>
+        <v>0.0135317582865614</v>
       </c>
       <c r="T15">
-        <v>0.008294651444797387</v>
+        <v>0.01045630225215469</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>3.309793666666666</v>
+        <v>2.132104</v>
       </c>
       <c r="H16">
-        <v>9.929380999999999</v>
+        <v>6.396312</v>
       </c>
       <c r="I16">
-        <v>0.04770464508066981</v>
+        <v>0.05713211521624299</v>
       </c>
       <c r="J16">
-        <v>0.05728818434504563</v>
+        <v>0.06099280689967021</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>14.177359</v>
+        <v>13.62041</v>
       </c>
       <c r="N16">
-        <v>42.532077</v>
+        <v>40.86123000000001</v>
       </c>
       <c r="O16">
-        <v>0.1236033999184949</v>
+        <v>0.1369489801107134</v>
       </c>
       <c r="P16">
-        <v>0.1325515550349214</v>
+        <v>0.1486879047638899</v>
       </c>
       <c r="Q16">
-        <v>46.92413302825967</v>
+        <v>29.04013064264</v>
       </c>
       <c r="R16">
-        <v>422.317197254337</v>
+        <v>261.36117578376</v>
       </c>
       <c r="S16">
-        <v>0.005896456323875892</v>
+        <v>0.007824184910432247</v>
       </c>
       <c r="T16">
-        <v>0.007593637920063041</v>
+        <v>0.009068892663580489</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>34.8194875</v>
+        <v>7.086566</v>
       </c>
       <c r="H17">
-        <v>69.638975</v>
+        <v>14.173132</v>
       </c>
       <c r="I17">
-        <v>0.5018594693098147</v>
+        <v>0.1898924748509033</v>
       </c>
       <c r="J17">
-        <v>0.4017864192541332</v>
+        <v>0.135149614846733</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>56.01527666666667</v>
+        <v>38.10639333333333</v>
       </c>
       <c r="N17">
-        <v>168.04583</v>
+        <v>114.31918</v>
       </c>
       <c r="O17">
-        <v>0.4883616647765734</v>
+        <v>0.3831479157160237</v>
       </c>
       <c r="P17">
-        <v>0.5237161609491596</v>
+        <v>0.4159903984418967</v>
       </c>
       <c r="Q17">
-        <v>1950.423225704042</v>
+        <v>270.0434713786266</v>
       </c>
       <c r="R17">
-        <v>11702.53935422425</v>
+        <v>1620.26082827176</v>
       </c>
       <c r="S17">
-        <v>0.2450889259160288</v>
+        <v>0.07275690594928104</v>
       </c>
       <c r="T17">
-        <v>0.2104220410132842</v>
+        <v>0.05622094212936135</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>34.8194875</v>
+        <v>7.086566</v>
       </c>
       <c r="H18">
-        <v>69.638975</v>
+        <v>14.173132</v>
       </c>
       <c r="I18">
-        <v>0.5018594693098147</v>
+        <v>0.1898924748509033</v>
       </c>
       <c r="J18">
-        <v>0.4017864192541332</v>
+        <v>0.135149614846733</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>27.448452</v>
       </c>
       <c r="O18">
-        <v>0.07976854715323708</v>
+        <v>0.09199521176963764</v>
       </c>
       <c r="P18">
-        <v>0.08554331818550501</v>
+        <v>0.09988081163714851</v>
       </c>
       <c r="Q18">
-        <v>318.58034376945</v>
+        <v>64.83842223194399</v>
       </c>
       <c r="R18">
-        <v>1911.4820626167</v>
+        <v>389.030533391664</v>
       </c>
       <c r="S18">
-        <v>0.0400326007419385</v>
+        <v>0.01746919843736943</v>
       </c>
       <c r="T18">
-        <v>0.03437014350487103</v>
+        <v>0.01349885322333971</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>34.8194875</v>
+        <v>7.086566</v>
       </c>
       <c r="H19">
-        <v>69.638975</v>
+        <v>14.173132</v>
       </c>
       <c r="I19">
-        <v>0.5018594693098147</v>
+        <v>0.1898924748509033</v>
       </c>
       <c r="J19">
-        <v>0.4017864192541332</v>
+        <v>0.135149614846733</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>12.129045</v>
+        <v>15.023598</v>
       </c>
       <c r="N19">
-        <v>36.387135</v>
+        <v>45.070794</v>
       </c>
       <c r="O19">
-        <v>0.1057454494708373</v>
+        <v>0.1510575983904562</v>
       </c>
       <c r="P19">
-        <v>0.1134007945935868</v>
+        <v>0.1640058785774412</v>
       </c>
       <c r="Q19">
-        <v>422.3271307644375</v>
+        <v>106.465718784468</v>
       </c>
       <c r="R19">
-        <v>2533.962784586625</v>
+        <v>638.794312706808</v>
       </c>
       <c r="S19">
-        <v>0.05306935515336225</v>
+        <v>0.02868470120339755</v>
       </c>
       <c r="T19">
-        <v>0.04556289920033069</v>
+        <v>0.02216533132234125</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>34.8194875</v>
+        <v>7.086566</v>
       </c>
       <c r="H20">
-        <v>69.638975</v>
+        <v>14.173132</v>
       </c>
       <c r="I20">
-        <v>0.5018594693098147</v>
+        <v>0.1898924748509033</v>
       </c>
       <c r="J20">
-        <v>0.4017864192541332</v>
+        <v>0.135149614846733</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>23.229232</v>
+        <v>23.556204</v>
       </c>
       <c r="N20">
-        <v>46.45846400000001</v>
+        <v>47.112408</v>
       </c>
       <c r="O20">
-        <v>0.2025209386808572</v>
+        <v>0.236850294013169</v>
       </c>
       <c r="P20">
-        <v>0.1447881712368271</v>
+        <v>0.1714350065796238</v>
       </c>
       <c r="Q20">
-        <v>808.8299532586001</v>
+        <v>166.932594355464</v>
       </c>
       <c r="R20">
-        <v>3235.3198130344</v>
+        <v>667.730377421856</v>
       </c>
       <c r="S20">
-        <v>0.1016370508105005</v>
+        <v>0.04497608849932474</v>
       </c>
       <c r="T20">
-        <v>0.05817392087159906</v>
+        <v>0.02316937511048331</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>34.8194875</v>
+        <v>7.086566</v>
       </c>
       <c r="H21">
-        <v>69.638975</v>
+        <v>14.173132</v>
       </c>
       <c r="I21">
-        <v>0.5018594693098147</v>
+        <v>0.1898924748509033</v>
       </c>
       <c r="J21">
-        <v>0.4017864192541332</v>
+        <v>0.135149614846733</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>14.177359</v>
+        <v>13.62041</v>
       </c>
       <c r="N21">
-        <v>42.532077</v>
+        <v>40.86123000000001</v>
       </c>
       <c r="O21">
-        <v>0.1236033999184949</v>
+        <v>0.1369489801107134</v>
       </c>
       <c r="P21">
-        <v>0.1325515550349214</v>
+        <v>0.1486879047638899</v>
       </c>
       <c r="Q21">
-        <v>493.6483744835126</v>
+        <v>96.52193441206002</v>
       </c>
       <c r="R21">
-        <v>2961.890246901075</v>
+        <v>579.1316064723601</v>
       </c>
       <c r="S21">
-        <v>0.06203153668798465</v>
+        <v>0.02600558076153049</v>
       </c>
       <c r="T21">
-        <v>0.05325741466404826</v>
+        <v>0.02009511306120744</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>3.57841</v>
+        <v>2.398207</v>
       </c>
       <c r="H22">
-        <v>10.73523</v>
+        <v>7.194621</v>
       </c>
       <c r="I22">
-        <v>0.05157626009208017</v>
+        <v>0.06426264320896187</v>
       </c>
       <c r="J22">
-        <v>0.06193758052253855</v>
+        <v>0.06860517894832399</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>56.01527666666667</v>
+        <v>38.10639333333333</v>
       </c>
       <c r="N22">
-        <v>168.04583</v>
+        <v>114.31918</v>
       </c>
       <c r="O22">
-        <v>0.4883616647765734</v>
+        <v>0.3831479157160237</v>
       </c>
       <c r="P22">
-        <v>0.5237161609491596</v>
+        <v>0.4159903984418967</v>
       </c>
       <c r="Q22">
-        <v>200.4456261767667</v>
+        <v>91.38701923675332</v>
       </c>
       <c r="R22">
-        <v>1804.0106355909</v>
+        <v>822.4831731307798</v>
       </c>
       <c r="S22">
-        <v>0.02518786824151781</v>
+        <v>0.02462209780391623</v>
       </c>
       <c r="T22">
-        <v>0.03243771188974333</v>
+        <v>0.02853909572589092</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>3.57841</v>
+        <v>2.398207</v>
       </c>
       <c r="H23">
-        <v>10.73523</v>
+        <v>7.194621</v>
       </c>
       <c r="I23">
-        <v>0.05157626009208017</v>
+        <v>0.06426264320896187</v>
       </c>
       <c r="J23">
-        <v>0.06193758052253855</v>
+        <v>0.06860517894832399</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>27.448452</v>
       </c>
       <c r="O23">
-        <v>0.07976854715323708</v>
+        <v>0.09199521176963764</v>
       </c>
       <c r="P23">
-        <v>0.08554331818550501</v>
+        <v>0.09988081163714851</v>
       </c>
       <c r="Q23">
-        <v>32.74060504044</v>
+        <v>21.942356575188</v>
       </c>
       <c r="R23">
-        <v>294.66544536396</v>
+        <v>197.481209176692</v>
       </c>
       <c r="S23">
-        <v>0.004114163335142717</v>
+        <v>0.005911855470885114</v>
       </c>
       <c r="T23">
-        <v>0.005298346158279853</v>
+        <v>0.006852340955870415</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>3.57841</v>
+        <v>2.398207</v>
       </c>
       <c r="H24">
-        <v>10.73523</v>
+        <v>7.194621</v>
       </c>
       <c r="I24">
-        <v>0.05157626009208017</v>
+        <v>0.06426264320896187</v>
       </c>
       <c r="J24">
-        <v>0.06193758052253855</v>
+        <v>0.06860517894832399</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>12.129045</v>
+        <v>15.023598</v>
       </c>
       <c r="N24">
-        <v>36.387135</v>
+        <v>45.070794</v>
       </c>
       <c r="O24">
-        <v>0.1057454494708373</v>
+        <v>0.1510575983904562</v>
       </c>
       <c r="P24">
-        <v>0.1134007945935868</v>
+        <v>0.1640058785774412</v>
       </c>
       <c r="Q24">
-        <v>43.40269591845</v>
+        <v>36.029697888786</v>
       </c>
       <c r="R24">
-        <v>390.62426326605</v>
+        <v>324.267280999074</v>
       </c>
       <c r="S24">
-        <v>0.005453954805461828</v>
+        <v>0.009707360549368538</v>
       </c>
       <c r="T24">
-        <v>0.007023770846460134</v>
+        <v>0.01125165264838245</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>3.57841</v>
+        <v>2.398207</v>
       </c>
       <c r="H25">
-        <v>10.73523</v>
+        <v>7.194621</v>
       </c>
       <c r="I25">
-        <v>0.05157626009208017</v>
+        <v>0.06426264320896187</v>
       </c>
       <c r="J25">
-        <v>0.06193758052253855</v>
+        <v>0.06860517894832399</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>23.229232</v>
+        <v>23.556204</v>
       </c>
       <c r="N25">
-        <v>46.45846400000001</v>
+        <v>47.112408</v>
       </c>
       <c r="O25">
-        <v>0.2025209386808572</v>
+        <v>0.236850294013169</v>
       </c>
       <c r="P25">
-        <v>0.1447881712368271</v>
+        <v>0.1714350065796238</v>
       </c>
       <c r="Q25">
-        <v>83.12371608112002</v>
+        <v>56.49265332622799</v>
       </c>
       <c r="R25">
-        <v>498.7422964867201</v>
+        <v>338.955919957368</v>
       </c>
       <c r="S25">
-        <v>0.01044527260749611</v>
+        <v>0.015220625938106</v>
       </c>
       <c r="T25">
-        <v>0.008967829014692079</v>
+        <v>0.0117613293044022</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>3.57841</v>
+        <v>2.398207</v>
       </c>
       <c r="H26">
-        <v>10.73523</v>
+        <v>7.194621</v>
       </c>
       <c r="I26">
-        <v>0.05157626009208017</v>
+        <v>0.06426264320896187</v>
       </c>
       <c r="J26">
-        <v>0.06193758052253855</v>
+        <v>0.06860517894832399</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>14.177359</v>
+        <v>13.62041</v>
       </c>
       <c r="N26">
-        <v>42.532077</v>
+        <v>40.86123000000001</v>
       </c>
       <c r="O26">
-        <v>0.1236033999184949</v>
+        <v>0.1369489801107134</v>
       </c>
       <c r="P26">
-        <v>0.1325515550349214</v>
+        <v>0.1486879047638899</v>
       </c>
       <c r="Q26">
-        <v>50.73240321919</v>
+        <v>32.66456260487</v>
       </c>
       <c r="R26">
-        <v>456.5916289727101</v>
+        <v>293.98106344383</v>
       </c>
       <c r="S26">
-        <v>0.006375001102461694</v>
+        <v>0.00880070344668599</v>
       </c>
       <c r="T26">
-        <v>0.008209922613363146</v>
+        <v>0.01020076031377802</v>
       </c>
     </row>
   </sheetData>
